--- a/Reports/Unit Tests/EmailValidatorTest/emailValidator_InvalidEmailDoubleDot_ReturnsFalse.xlsx
+++ b/Reports/Unit Tests/EmailValidatorTest/emailValidator_InvalidEmailDoubleDot_ReturnsFalse.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -102,17 +102,17 @@
     <t>02/16/22 14:34:15</t>
   </si>
   <si>
-    <t>cb4c0e4556c5fb482741c329eebe2cd700c817c0</t>
+    <t>ad41728157132f7f6e439f33e0d23acb6b23265c</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">- Add unit test design
+    <t xml:space="preserve">Merge branch 'main' of https://github.com/lgjp-open-source/UnitTestManagementSample
 </t>
   </si>
   <si>
-    <t>Not executed</t>
+    <t>Pass</t>
   </si>
   <si>
     <t>Input Invalivalid email (double dot) then isValidEmail function must return false</t>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>As expected</t>
   </si>
 </sst>
 </file>
@@ -676,12 +679,14 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12" t="n">
+        <v>44608.90244212963</v>
+      </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
@@ -731,7 +736,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>30</v>
